--- a/ABAGAIL-master/src/opt/xliang75/result.xlsx
+++ b/ABAGAIL-master/src/opt/xliang75/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/Ml/ABAGAIL-master/src/opt/xliang75/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2EAE83-2810-0D4B-93BB-D3DDE2DA74E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD4AF1E-A197-2944-A357-8B485EC79857}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="-21880" windowWidth="32460" windowHeight="20480" xr2:uid="{19668A64-C903-3B45-A555-0282FECF229E}"/>
+    <workbookView xWindow="14160" yWindow="-21880" windowWidth="38400" windowHeight="19600" xr2:uid="{19668A64-C903-3B45-A555-0282FECF229E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,32 +19,29 @@
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$8</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$20:$B$25</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$E$3:$E$8</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$3:$A$8</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$20:$B$25</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$E$3:$E$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$F$36:$F$41</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$3:$A$8</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$20:$B$25</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$E$3:$E$8</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$F$36:$F$41</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$3:$A$8</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$36:$F$41</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$3:$A$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$20:$B$25</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$E$3:$E$8</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$36:$F$41</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$3:$A$8</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$20:$B$25</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$E$3:$E$8</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$F$36:$F$41</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$3:$E$8</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$20:$B$25</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$E$3:$E$8</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$F$36:$F$41</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$A$3:$A$8</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$20:$B$25</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$E$3:$E$8</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$F$36:$F$41</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$A$3:$A$8</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$20:$B$25</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$E$3:$E$8</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$3:$A$8</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$20:$B$25</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$E$3:$E$8</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$F$36:$F$41</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$3:$A$8</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$20:$B$25</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$E$3:$E$8</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$F$36:$F$41</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$A$3:$A$8</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$20:$B$25</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$36:$F$41</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$F$36:$F$41</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$A$3:$A$8</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$20:$B$25</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$E$3:$E$8</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$F$36:$F$41</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$E$3:$E$8</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$F$36:$F$41</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$3:$A$8</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$20:$B$25</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$3:$E$8</definedName>
@@ -62,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Iterations</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +116,74 @@
     <t>500, 350, 50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Travel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mimic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Travel Genetic Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 50, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200, 150, 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continuous Peaks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knapsack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -163,8 +228,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,6 +672,4926 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Travelling Salesman Fitness Function - Genetic Algorithm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$103:$F$103</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10, 5, 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 10, 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50, 25, 10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100, 50, 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200, 150, 20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500, 350, 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$104:$A$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.2209735803835596E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12514279415834001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.148325051804302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.136271955841544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14639056946041501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15786212050541401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D99-664C-9DE6-B2618F764181}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Function</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Travelling Salesman Computation Time - Genetic Algorithm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$103:$F$103</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10, 5, 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 10, 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50, 25, 10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100, 50, 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200, 150, 20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500, 350, 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$104:$B$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.0812054100000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14335658800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29831517010000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62494120360000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8228687319000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4386980281999904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31CF-4E46-A3E1-D6B17B7F55A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Time(S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Travelling Salesman Problem Fitness Function</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$96:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5926812341260602E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7884595420486993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0921861240079893E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.108070548274446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.118180281513656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA64-C647-8082-ABAAF428257C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$96:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8284537192079297E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9029867157521103E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9054462821502198E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1073425236535495E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.101827804412558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.110238043471069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA64-C647-8082-ABAAF428257C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$96:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.09800021554132E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14951071683756101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15410807073385999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14866239454001801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.146368526921732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.147128893360401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA64-C647-8082-ABAAF428257C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MIMIC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$96:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0596431311463297E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8324065309208995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5134396820885402E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4486412765898198E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.101952152466909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.108075514023906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA64-C647-8082-ABAAF428257C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Fitness Function</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Travelling Salesman Problem Computation Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$96:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.0590269999999903E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8416499999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5338549999999899E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0530879999999897E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1093144000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4134664000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26CA-D94F-93F1-395FBAB333FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$96:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.14084399999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.45549E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7313669999999899E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1173120000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7055606E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.8413340000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26CA-D94F-93F1-395FBAB333FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$96:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.14056059999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5256988499999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19158339799999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3801107292</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.85103599460000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8108230163999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-26CA-D94F-93F1-395FBAB333FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MIMIC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$96:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.29100959910000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9563107072000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2948875284000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.855930549699998</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>43.468229048600001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.463759548300004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-26CA-D94F-93F1-395FBAB333FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000004E-6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Logrithmic</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Computation Time(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Continous Peak Fitness Function</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$128:$A$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BA4-D540-AE34-EAD7AC72E93E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$128:$C$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BA4-D540-AE34-EAD7AC72E93E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$128:$E$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4BA4-D540-AE34-EAD7AC72E93E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MIMIC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$128:$G$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4BA4-D540-AE34-EAD7AC72E93E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Fitness Function</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Continuous Peak Clock Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$128:$B$133</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7300269999999898E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4296999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6832499999999901E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9967969999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.86273E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.3399144999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1A9-1E42-8F53-C30BBBFCD97C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$128:$D$133</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1276829999999901E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6905299999999896E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6733779999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4181689999999899E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0324876999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.5010927999999902E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1A9-1E42-8F53-C30BBBFCD97C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$128:$F$133</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>5.7839687000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1857863E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4663755100000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7493884700000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.19781695839999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41368263839999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D1A9-1E42-8F53-C30BBBFCD97C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MIMIC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$128:$H$133</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>8.2332828699999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27607075580000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1749132721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4437565557999901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3339427483000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.856896602100001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D1A9-1E42-8F53-C30BBBFCD97C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000004E-6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Clock Time(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Continuous Peaks Problem Fitness Function - SA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$136:$J$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$138:$J$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FE4-9E46-B85D-1728A47B959A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Cooling</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Exponent</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Function</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Continuous Peaks Problem Computation Time - SA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$136:$J$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$137:$J$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.3368269999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3333755000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0126420000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2800473000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2041203000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4714131999999901E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2649682000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0920423999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3136706000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1837982999999899E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EC9-334C-89BF-4D6DA4856D25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Cooling</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Exponent</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000002E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-3"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Knapsack Problem Fitness Function</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$149:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-401A-D543-85D1-94A5CD189D3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$149:$C$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-401A-D543-85D1-94A5CD189D3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$149:$E$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-401A-D543-85D1-94A5CD189D3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MIMIC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$149:$G$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-401A-D543-85D1-94A5CD189D3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Fitness Function</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Knapsack Problem Computation Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$149:$B$154</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.08690999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3102000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.7675752E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5293220000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2769279999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.755919E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-220A-EF4E-BF9D-4BAB07B9114C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$149:$D$154</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.8945199999999902E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4423399999999903E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3675749999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3038259999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0553400000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.9670502000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-220A-EF4E-BF9D-4BAB07B9114C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$149:$F$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>3.8802873999999898E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.22582447E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0446079899999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11910029630000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25625215959999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55166084599999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-220A-EF4E-BF9D-4BAB07B9114C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MIMIC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$149:$H$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.7231964100000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19228414369999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9720418971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6183920124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9651164488999902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7969160069999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-220A-EF4E-BF9D-4BAB07B9114C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000004E-6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Lograrithmic Computation Time(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1067,6 +6058,746 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Knapsack Problem Fitness Function - MIMIC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$157:$I$157</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10,5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20,10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40,20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80,40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160,80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200,40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200,80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200,100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200,160</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$158:$I$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3673</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B0C-5748-81C0-FDCBBBF035EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Samples</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> to generate, samples to keep</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Function</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Knapsack Problem Fitness Function - MIMIC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RHC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$157:$I$157</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10,5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20,10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40,20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80,40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160,80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200,40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200,80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200,100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200,160</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$159:$I$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.4987316168999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3451362894000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1028994553000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6558257785999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9075579524999906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.279626687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0503327443999897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5095499796999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.2862586173999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB1C-8140-AE3D-4B8A75AE4F2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="917848208"/>
+        <c:axId val="918010736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="917848208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Samples</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> to generate, samples to keep</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918010736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918010736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Function</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917848208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -8914,14 +14645,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8944,6 +14675,462 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB25561-7AC9-6946-8AD8-344B46844690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D930D77-E7A8-2940-8A3B-D0B49B032A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>645160</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="图表 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBB55E6-502A-4E41-8B01-FAB8ABBACEDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="图表 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A41318-F393-1240-A8A9-80A6766C2C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="图表 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB6A571-F80D-9346-A6D0-32049C404B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="图表 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B193AA-4FB9-3341-A403-1DD96CD8129E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="图表 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC7BE32-DFBE-9C4F-921F-F887C046C3C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="图表 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E20CE2-8CC7-BA4D-9919-048A7C961028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="图表 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7707527-F22A-0E46-8F26-B82126003FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="图表 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5FDD46-C720-A647-BC8E-E19015A55727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="图表 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE309915-F708-9249-B915-20EB9DD0924C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="图表 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FDA36B-02C6-A649-80CE-30FAEF8DEA98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9249,10 +15436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A411521-5EC9-0740-9726-A01BB6BA005C}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10037,6 +16224,777 @@
         <v>3689.7750000000001</v>
       </c>
     </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>100</v>
+      </c>
+      <c r="D94">
+        <v>500</v>
+      </c>
+      <c r="E94">
+        <v>1000</v>
+      </c>
+      <c r="F94">
+        <v>2500</v>
+      </c>
+      <c r="G94">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>4.24E-2</v>
+      </c>
+      <c r="B96" s="1">
+        <v>9.0590269999999903E-4</v>
+      </c>
+      <c r="C96">
+        <v>3.8284537192079297E-2</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1.14084399999999E-4</v>
+      </c>
+      <c r="E96">
+        <v>9.09800021554132E-2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1.14056059999999E-2</v>
+      </c>
+      <c r="G96">
+        <v>5.0596431311463297E-2</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.29100959910000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>5.5926812341260602E-2</v>
+      </c>
+      <c r="B97" s="1">
+        <v>7.8416499999999997E-5</v>
+      </c>
+      <c r="C97">
+        <v>3.9029867157521103E-2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>7.45549E-5</v>
+      </c>
+      <c r="E97">
+        <v>0.14951071683756101</v>
+      </c>
+      <c r="F97" s="1">
+        <v>4.5256988499999998E-2</v>
+      </c>
+      <c r="G97">
+        <v>6.8324065309208995E-2</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1.9563107072000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>7.7884595420486993E-2</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2.5338549999999899E-4</v>
+      </c>
+      <c r="C98">
+        <v>3.9054462821502198E-2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2.7313669999999899E-4</v>
+      </c>
+      <c r="E98">
+        <v>0.15410807073385999</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.19158339799999899</v>
+      </c>
+      <c r="G98">
+        <v>8.5134396820885402E-2</v>
+      </c>
+      <c r="H98" s="1">
+        <v>9.2948875284000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>9.0921861240079893E-2</v>
+      </c>
+      <c r="B99" s="1">
+        <v>5.0530879999999897E-4</v>
+      </c>
+      <c r="C99">
+        <v>7.1073425236535495E-2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>7.1173120000000002E-4</v>
+      </c>
+      <c r="E99">
+        <v>0.14866239454001801</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.3801107292</v>
+      </c>
+      <c r="G99">
+        <v>9.4486412765898198E-2</v>
+      </c>
+      <c r="H99" s="1">
+        <v>18.855930549699998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>0.108070548274446</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1.1093144000000001E-3</v>
+      </c>
+      <c r="C100">
+        <v>0.101827804412558</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1.7055606E-3</v>
+      </c>
+      <c r="E100">
+        <v>0.146368526921732</v>
+      </c>
+      <c r="F100">
+        <v>0.85103599460000001</v>
+      </c>
+      <c r="G100">
+        <v>0.101952152466909</v>
+      </c>
+      <c r="H100">
+        <v>43.468229048600001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>0.118180281513656</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2.4134664000000001E-3</v>
+      </c>
+      <c r="C101">
+        <v>0.110238043471069</v>
+      </c>
+      <c r="D101">
+        <v>3.8413340000000001E-3</v>
+      </c>
+      <c r="E101">
+        <v>0.147128893360401</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1.8108230163999901</v>
+      </c>
+      <c r="G101">
+        <v>0.108075514023906</v>
+      </c>
+      <c r="H101" s="1">
+        <v>91.463759548300004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>9.2209735803835596E-2</v>
+      </c>
+      <c r="B104">
+        <v>8.0812054100000003E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>0.12514279415834001</v>
+      </c>
+      <c r="B105">
+        <v>0.14335658800000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>0.148325051804302</v>
+      </c>
+      <c r="B106">
+        <v>0.29831517010000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>0.136271955841544</v>
+      </c>
+      <c r="B107">
+        <v>0.62494120360000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>0.14639056946041501</v>
+      </c>
+      <c r="B108">
+        <v>1.8228687319000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>0.15786212050541401</v>
+      </c>
+      <c r="B109">
+        <v>4.4386980281999904</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128" s="1">
+        <v>3.7300269999999898E-4</v>
+      </c>
+      <c r="C128">
+        <v>13</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1.1276829999999901E-4</v>
+      </c>
+      <c r="E128">
+        <v>74</v>
+      </c>
+      <c r="F128">
+        <v>5.7839687000000002E-3</v>
+      </c>
+      <c r="G128">
+        <v>81</v>
+      </c>
+      <c r="H128">
+        <v>8.2332828699999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>42</v>
+      </c>
+      <c r="B129" s="1">
+        <v>9.4296999999999995E-5</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1">
+        <v>6.6905299999999896E-5</v>
+      </c>
+      <c r="E129">
+        <v>82</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1.1857863E-2</v>
+      </c>
+      <c r="G129">
+        <v>85</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0.27607075580000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>59</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1.6832499999999901E-4</v>
+      </c>
+      <c r="C130">
+        <v>57</v>
+      </c>
+      <c r="D130" s="1">
+        <v>2.6733779999999998E-4</v>
+      </c>
+      <c r="E130">
+        <v>85</v>
+      </c>
+      <c r="F130" s="1">
+        <v>4.4663755100000001E-2</v>
+      </c>
+      <c r="G130">
+        <v>99</v>
+      </c>
+      <c r="H130" s="1">
+        <v>1.1749132721</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>59</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2.9967969999999998E-4</v>
+      </c>
+      <c r="C131">
+        <v>85</v>
+      </c>
+      <c r="D131" s="1">
+        <v>4.4181689999999899E-4</v>
+      </c>
+      <c r="E131">
+        <v>85</v>
+      </c>
+      <c r="F131" s="1">
+        <v>9.7493884700000005E-2</v>
+      </c>
+      <c r="G131">
+        <v>102</v>
+      </c>
+      <c r="H131" s="1">
+        <v>2.4437565557999901</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>88</v>
+      </c>
+      <c r="B132" s="1">
+        <v>5.86273E-4</v>
+      </c>
+      <c r="C132">
+        <v>104</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1.0324876999999999E-3</v>
+      </c>
+      <c r="E132">
+        <v>91</v>
+      </c>
+      <c r="F132">
+        <v>0.19781695839999999</v>
+      </c>
+      <c r="G132">
+        <v>110</v>
+      </c>
+      <c r="H132" s="1">
+        <v>5.3339427483000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
+        <v>87</v>
+      </c>
+      <c r="B133">
+        <v>1.3399144999999999E-3</v>
+      </c>
+      <c r="C133">
+        <v>113</v>
+      </c>
+      <c r="D133">
+        <v>2.5010927999999902E-3</v>
+      </c>
+      <c r="E133">
+        <v>101</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.41368263839999903</v>
+      </c>
+      <c r="G133">
+        <v>113</v>
+      </c>
+      <c r="H133" s="1">
+        <v>10.856896602100001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
+        <v>0.05</v>
+      </c>
+      <c r="B136">
+        <v>0.15</v>
+      </c>
+      <c r="C136">
+        <v>0.25</v>
+      </c>
+      <c r="D136">
+        <v>0.35</v>
+      </c>
+      <c r="E136">
+        <v>0.45</v>
+      </c>
+      <c r="F136">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G136">
+        <v>0.65</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I136">
+        <v>0.85</v>
+      </c>
+      <c r="J136">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137">
+        <v>5.3368269999999997E-3</v>
+      </c>
+      <c r="B137">
+        <v>5.3333755000000002E-3</v>
+      </c>
+      <c r="C137">
+        <v>5.0126420000000003E-3</v>
+      </c>
+      <c r="D137">
+        <v>5.2800473000000001E-3</v>
+      </c>
+      <c r="E137">
+        <v>5.2041203000000001E-3</v>
+      </c>
+      <c r="F137">
+        <v>3.4714131999999901E-3</v>
+      </c>
+      <c r="G137">
+        <v>3.2649682000000001E-3</v>
+      </c>
+      <c r="H137">
+        <v>3.0920423999999998E-3</v>
+      </c>
+      <c r="I137">
+        <v>2.3136706000000001E-3</v>
+      </c>
+      <c r="J137">
+        <v>2.1837982999999899E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138">
+        <v>101</v>
+      </c>
+      <c r="B138">
+        <v>104</v>
+      </c>
+      <c r="C138">
+        <v>104</v>
+      </c>
+      <c r="D138">
+        <v>103</v>
+      </c>
+      <c r="E138">
+        <v>108</v>
+      </c>
+      <c r="F138">
+        <v>113</v>
+      </c>
+      <c r="G138">
+        <v>113</v>
+      </c>
+      <c r="H138">
+        <v>112</v>
+      </c>
+      <c r="I138">
+        <v>112</v>
+      </c>
+      <c r="J138">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>2309</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2.08690999999999E-4</v>
+      </c>
+      <c r="C149">
+        <v>1989</v>
+      </c>
+      <c r="D149" s="1">
+        <v>8.8945199999999902E-5</v>
+      </c>
+      <c r="E149">
+        <v>2910</v>
+      </c>
+      <c r="F149" s="1">
+        <v>3.8802873999999898E-3</v>
+      </c>
+      <c r="G149">
+        <v>3552</v>
+      </c>
+      <c r="H149">
+        <v>4.7231964100000003E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>3164</v>
+      </c>
+      <c r="B150" s="1">
+        <v>8.3102000000000005E-5</v>
+      </c>
+      <c r="C150">
+        <v>1929</v>
+      </c>
+      <c r="D150" s="1">
+        <v>5.4423399999999903E-5</v>
+      </c>
+      <c r="E150">
+        <v>3536</v>
+      </c>
+      <c r="F150">
+        <v>1.22582447E-2</v>
+      </c>
+      <c r="G150">
+        <v>3716</v>
+      </c>
+      <c r="H150">
+        <v>0.19228414369999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>3249</v>
+      </c>
+      <c r="B151">
+        <v>1.7675752E-3</v>
+      </c>
+      <c r="C151">
+        <v>3068</v>
+      </c>
+      <c r="D151" s="1">
+        <v>2.3675749999999999E-4</v>
+      </c>
+      <c r="E151">
+        <v>3615</v>
+      </c>
+      <c r="F151">
+        <v>6.0446079899999998E-2</v>
+      </c>
+      <c r="G151">
+        <v>3706</v>
+      </c>
+      <c r="H151">
+        <v>0.9720418971</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>3245</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1.5293220000000001E-4</v>
+      </c>
+      <c r="C152">
+        <v>3291</v>
+      </c>
+      <c r="D152" s="1">
+        <v>3.3038259999999998E-4</v>
+      </c>
+      <c r="E152">
+        <v>3618</v>
+      </c>
+      <c r="F152">
+        <v>0.11910029630000001</v>
+      </c>
+      <c r="G152">
+        <v>3671</v>
+      </c>
+      <c r="H152">
+        <v>1.6183920124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>3403</v>
+      </c>
+      <c r="B153" s="1">
+        <v>3.2769279999999998E-4</v>
+      </c>
+      <c r="C153">
+        <v>3422</v>
+      </c>
+      <c r="D153" s="1">
+        <v>9.0553400000000005E-4</v>
+      </c>
+      <c r="E153">
+        <v>3730</v>
+      </c>
+      <c r="F153">
+        <v>0.25625215959999997</v>
+      </c>
+      <c r="G153">
+        <v>3759</v>
+      </c>
+      <c r="H153">
+        <v>3.9651164488999902</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>3269</v>
+      </c>
+      <c r="B154" s="1">
+        <v>6.755919E-4</v>
+      </c>
+      <c r="C154">
+        <v>3356</v>
+      </c>
+      <c r="D154">
+        <v>1.9670502000000002E-3</v>
+      </c>
+      <c r="E154">
+        <v>3904</v>
+      </c>
+      <c r="F154">
+        <v>0.55166084599999998</v>
+      </c>
+      <c r="G154">
+        <v>3952</v>
+      </c>
+      <c r="H154">
+        <v>7.7969160069999903</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" t="s">
+        <v>29</v>
+      </c>
+      <c r="G157" t="s">
+        <v>30</v>
+      </c>
+      <c r="H157" s="2">
+        <v>200100</v>
+      </c>
+      <c r="I157" s="2">
+        <v>200160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>3187</v>
+      </c>
+      <c r="B158">
+        <v>3597</v>
+      </c>
+      <c r="C158">
+        <v>3633</v>
+      </c>
+      <c r="D158">
+        <v>3616</v>
+      </c>
+      <c r="E158">
+        <v>3613</v>
+      </c>
+      <c r="F158">
+        <v>3603</v>
+      </c>
+      <c r="G158">
+        <v>3673</v>
+      </c>
+      <c r="H158">
+        <v>3671</v>
+      </c>
+      <c r="I158">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>3.4987316168999998</v>
+      </c>
+      <c r="B159">
+        <v>3.3451362894000001</v>
+      </c>
+      <c r="C159">
+        <v>4.1028994553000002</v>
+      </c>
+      <c r="D159">
+        <v>5.6558257785999997</v>
+      </c>
+      <c r="E159">
+        <v>8.9075579524999906</v>
+      </c>
+      <c r="F159">
+        <v>11.279626687</v>
+      </c>
+      <c r="G159">
+        <v>8.0503327443999897</v>
+      </c>
+      <c r="H159">
+        <v>8.5095499796999992</v>
+      </c>
+      <c r="I159">
+        <v>10.2862586173999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
